--- a/毕业照片收集情况.xlsx
+++ b/毕业照片收集情况.xlsx
@@ -25,10 +25,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1048576"/>
+      <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -394,131 +390,352 @@
     <col min="4" max="4" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1">
+        <v>111</v>
+      </c>
+      <c r="C1">
+        <v>111</v>
+      </c>
+      <c r="D1">
+        <v>111</v>
+      </c>
+      <c r="E1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>111</v>
+      </c>
+      <c r="D2">
+        <v>111</v>
+      </c>
+      <c r="E2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>111</v>
+      </c>
+      <c r="D3">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2">
+        <v>111</v>
+      </c>
+      <c r="C4">
+        <v>111</v>
+      </c>
+      <c r="D4">
+        <v>111</v>
+      </c>
+      <c r="E4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>111</v>
+      </c>
+      <c r="B5" s="2">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <v>111</v>
+      </c>
+      <c r="D5">
+        <v>111</v>
+      </c>
+      <c r="E5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>111</v>
+      </c>
+      <c r="B6" s="2">
+        <v>111</v>
+      </c>
+      <c r="C6">
+        <v>111</v>
+      </c>
+      <c r="D6">
+        <v>111</v>
+      </c>
+      <c r="E6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>111</v>
+      </c>
+      <c r="B7" s="2">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>111</v>
+      </c>
+      <c r="D7">
+        <v>111</v>
+      </c>
+      <c r="E7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2">
+        <v>111</v>
+      </c>
+      <c r="C8">
+        <v>111</v>
+      </c>
+      <c r="D8">
+        <v>111</v>
+      </c>
+      <c r="E8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2">
+        <v>111</v>
+      </c>
+      <c r="C9">
+        <v>111</v>
+      </c>
+      <c r="D9">
+        <v>111</v>
+      </c>
+      <c r="E9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>111</v>
+      </c>
+      <c r="B10" s="2">
+        <v>111</v>
+      </c>
+      <c r="C10">
+        <v>111</v>
+      </c>
+      <c r="D10">
+        <v>111</v>
+      </c>
+      <c r="E10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>111</v>
+      </c>
+      <c r="B11" s="2">
+        <v>111</v>
+      </c>
+      <c r="C11">
+        <v>111</v>
+      </c>
+      <c r="D11">
+        <v>111</v>
+      </c>
+      <c r="E11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2">
+        <v>111</v>
+      </c>
+      <c r="C12">
+        <v>111</v>
+      </c>
+      <c r="D12">
+        <v>111</v>
+      </c>
+      <c r="E12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>111</v>
+      </c>
+      <c r="B13" s="2">
+        <v>111</v>
+      </c>
+      <c r="C13">
+        <v>111</v>
+      </c>
+      <c r="D13">
+        <v>111</v>
+      </c>
+      <c r="E13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>111</v>
+      </c>
+      <c r="B14" s="2">
+        <v>111</v>
+      </c>
+      <c r="C14">
+        <v>111</v>
+      </c>
+      <c r="D14">
+        <v>111</v>
+      </c>
+      <c r="E14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2">
+        <v>111</v>
+      </c>
+      <c r="C15">
+        <v>111</v>
+      </c>
+      <c r="D15">
+        <v>111</v>
+      </c>
+      <c r="E15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>111</v>
+      </c>
+      <c r="B16" s="2">
+        <v>111</v>
+      </c>
+      <c r="C16">
+        <v>111</v>
+      </c>
+      <c r="D16">
+        <v>111</v>
+      </c>
+      <c r="E16">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>111</v>
+      </c>
+      <c r="B17" s="2">
+        <v>111</v>
+      </c>
+      <c r="C17">
+        <v>111</v>
+      </c>
+      <c r="D17">
+        <v>111</v>
+      </c>
+      <c r="E17">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
     </row>
